--- a/skill_analysis_scratch.xlsx
+++ b/skill_analysis_scratch.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\JupyterProj\RowenaIndusProj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\JupyterProj\RowenaIndusProj\rowenaIndustrialReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AA2DFA-4646-467D-BFAE-2A938DB14FE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681E5926-DEB7-407F-8F46-F1CB3ABD3C5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91381AA0-CDED-4A24-B704-028EFDFCCA12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="349">
   <si>
     <t>SM1i</t>
   </si>
@@ -85,6 +90,9 @@
     <t>SM6</t>
   </si>
   <si>
+    <t>Science and Mathematics (SM)</t>
+  </si>
+  <si>
     <t>EA1i</t>
   </si>
   <si>
@@ -139,6 +147,9 @@
     <t>EA6</t>
   </si>
   <si>
+    <t>Engineering Analysis (EA)</t>
+  </si>
+  <si>
     <t>D1i</t>
   </si>
   <si>
@@ -187,6 +198,9 @@
     <t>D8</t>
   </si>
   <si>
+    <t>Design (D)</t>
+  </si>
+  <si>
     <t>EL1</t>
   </si>
   <si>
@@ -238,6 +252,9 @@
     <t>EL7</t>
   </si>
   <si>
+    <t>Economic, legal, social, ethical and environmental context (EL)</t>
+  </si>
+  <si>
     <t>P1i</t>
   </si>
   <si>
@@ -259,9 +276,6 @@
     <t>P4i</t>
   </si>
   <si>
-    <t xml:space="preserve">P4 </t>
-  </si>
-  <si>
     <t>P4m</t>
   </si>
   <si>
@@ -316,6 +330,9 @@
     <t>P10</t>
   </si>
   <si>
+    <t>Engineering Practice (P)</t>
+  </si>
+  <si>
     <t>G1</t>
   </si>
   <si>
@@ -340,6 +357,9 @@
     <t>G3</t>
   </si>
   <si>
+    <t>Additional General Skills (G)</t>
+  </si>
+  <si>
     <t>Mechanics A</t>
   </si>
   <si>
@@ -544,40 +564,526 @@
     <t>Additional General Skills</t>
   </si>
   <si>
+    <t>Emails</t>
+  </si>
+  <si>
+    <t>One-to -one meetings</t>
+  </si>
+  <si>
+    <t>CPD</t>
+  </si>
+  <si>
+    <t>Graduate Lectures</t>
+  </si>
+  <si>
+    <t>Contacting Manufacturers</t>
+  </si>
+  <si>
+    <t>Mechanical Design</t>
+  </si>
+  <si>
+    <t>Electrical Design</t>
+  </si>
+  <si>
+    <t>Public Health Design</t>
+  </si>
+  <si>
+    <t>Auto CAD</t>
+  </si>
+  <si>
+    <t>Bluebeam</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Specifications</t>
+  </si>
+  <si>
+    <t>Design Team Meetings</t>
+  </si>
+  <si>
+    <t>Practice Internal Meetings</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Responsibilites</t>
+  </si>
+  <si>
+    <t>Technical Level</t>
+  </si>
+  <si>
+    <t>Technical Background</t>
+  </si>
+  <si>
+    <t>Camden CIP MEP ERs</t>
+  </si>
+  <si>
+    <t>Listed Building (Confidential)</t>
+  </si>
+  <si>
+    <t>Theatre</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>Specification</t>
+  </si>
+  <si>
+    <t>Kinning Park Complex</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Develop Access Control and CCTV Strategies Layout</t>
+  </si>
+  <si>
+    <t>Heat Gains and Losses Calculations</t>
+  </si>
+  <si>
+    <t>Initial Plant Sizing (boilers, flue and AHU)</t>
+  </si>
+  <si>
+    <t>Natural Ventilation Calculations</t>
+  </si>
+  <si>
+    <t>Louvre Size Calculations</t>
+  </si>
+  <si>
+    <t>Hydrant and Dry Riser Position Analysis</t>
+  </si>
+  <si>
+    <t>Lift Traffic Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Manufacturers </t>
+  </si>
+  <si>
+    <t>Design based on Passivhaus Standard</t>
+  </si>
+  <si>
+    <t>Initial Ventilation Requirement Calculations</t>
+  </si>
+  <si>
+    <t>Initial Plant Sizing (Passivhaus Certified MVHR)</t>
+  </si>
+  <si>
+    <t>Multiple Ventilation Strategy Options Schematic</t>
+  </si>
+  <si>
+    <t>Multiple Ventilation Strategy Options Calculations</t>
+  </si>
+  <si>
+    <t>MVHR Space Calculations and Drawings</t>
+  </si>
+  <si>
+    <t>Duct Sizing</t>
+  </si>
+  <si>
+    <t>Riser Space Drawings</t>
+  </si>
+  <si>
+    <t>Develop Electricity Strategies Schematic</t>
+  </si>
+  <si>
+    <t>Develop Electricit Metering Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Metering Manufacturer </t>
+  </si>
+  <si>
+    <t>Cost Study for Metering Options</t>
+  </si>
+  <si>
+    <t>Cost Study for Ventilation Strategy Options</t>
+  </si>
+  <si>
+    <t>Develop MEP Strategies Schematics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Develop MEP Strategies Layout </t>
+  </si>
+  <si>
+    <t>Check Previously Submitted Utility Documents</t>
+  </si>
+  <si>
+    <t>Incoming Services Drawings</t>
+  </si>
+  <si>
+    <t>Pipe Sizing Correction- Calculations</t>
+  </si>
+  <si>
+    <t>Pipe Sizing Correction- Schematics</t>
+  </si>
+  <si>
+    <t>Complete Specifications</t>
+  </si>
+  <si>
+    <t>Review Comments on Pending Drawings</t>
+  </si>
+  <si>
+    <t>Update Specification's Database</t>
+  </si>
+  <si>
+    <t>Draw Electrical Components</t>
+  </si>
+  <si>
+    <t>Updated Comments on Pending Drawings</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact MVHR Manufacturers </t>
+  </si>
+  <si>
+    <t>Design Project B, Design Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Project  </t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Building Services Technology, Design Project B, Energy Principles and Applications,Design Project</t>
+  </si>
+  <si>
+    <t>Building Services Technology, Energy Principles and Applications, Design Project</t>
+  </si>
+  <si>
+    <t>Construction Technology1, Design Project B, Energy Principles and Applications, Design Software Applications, Thermal Performance Studies, Design Project</t>
+  </si>
+  <si>
+    <t>0,1,2,3</t>
+  </si>
+  <si>
+    <t>3,4,5,6</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>UoP Indoor Sports Centre</t>
+  </si>
+  <si>
+    <t>Internal Job</t>
+  </si>
+  <si>
+    <t>Lyminton Station Footbridge</t>
+  </si>
+  <si>
+    <t>RIBA Stage</t>
+  </si>
+  <si>
+    <t>Design Project B, Energy Principles and Applications, Design Project</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Horne</t>
+  </si>
+  <si>
+    <t>Designing to Facilitate Effective Hand De-Contamination</t>
+  </si>
+  <si>
+    <t>Paxton</t>
+  </si>
+  <si>
+    <t>Network Access Control</t>
+  </si>
+  <si>
+    <t>Graduate Lecture</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>Auxillary Electrical Systems Design (CCTV and Fire Alarms)</t>
+  </si>
+  <si>
+    <t>Thermal Comfort</t>
+  </si>
+  <si>
+    <t>Induction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT </t>
+  </si>
+  <si>
+    <t>Payroll</t>
+  </si>
+  <si>
+    <t>Office-Environmental, QA and H&amp;S</t>
+  </si>
+  <si>
+    <t>Office-Introduction</t>
+  </si>
+  <si>
+    <t>Office-H&amp;S</t>
+  </si>
+  <si>
+    <t>Site H&amp;S</t>
+  </si>
+  <si>
+    <t>Assessment</t>
+  </si>
+  <si>
+    <t>DSER Workstation</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Edinburgh Office Meeting</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>Pre-Partners Meeting</t>
+  </si>
+  <si>
+    <t>Summer Party in London</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>Lighting of Church and Heritage Site</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>IT Security</t>
+  </si>
+  <si>
+    <t>Kelvin Lighting</t>
+  </si>
+  <si>
+    <t>Unlocking the Code of Colour</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Revit/BIM Presentation</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Climate Emergency Day of Action</t>
+  </si>
+  <si>
+    <t>Library Induction</t>
+  </si>
+  <si>
+    <t>Industry Workshop HWU</t>
+  </si>
+  <si>
+    <t>Helping 4th year students</t>
+  </si>
+  <si>
+    <t>HWU Design Surgery</t>
+  </si>
+  <si>
+    <t>CPD (all day)</t>
+  </si>
+  <si>
+    <t>CSIC</t>
+  </si>
+  <si>
+    <t>The Scottish Smart Buildings Event</t>
+  </si>
+  <si>
+    <t>Practice Briefing</t>
+  </si>
+  <si>
+    <t>Kensa</t>
+  </si>
+  <si>
+    <t>Shared Loop Ground Source Heat Pumps</t>
+  </si>
+  <si>
+    <t>with Dee</t>
+  </si>
+  <si>
+    <t>with Jacqueline</t>
+  </si>
+  <si>
+    <t>with Tony</t>
+  </si>
+  <si>
+    <t>with Elaine</t>
+  </si>
+  <si>
+    <t>with Jilly</t>
+  </si>
+  <si>
+    <t>with Alasdair</t>
+  </si>
+  <si>
+    <t>with Brett</t>
+  </si>
+  <si>
+    <t>with Janet, Andrew, David and Brett</t>
+  </si>
+  <si>
+    <t>Contact the Elderly Afternoon Tea</t>
+  </si>
+  <si>
+    <t>29/11/2019 Meeting</t>
+  </si>
+  <si>
+    <t>rgb 192 224 201</t>
+  </si>
+  <si>
+    <t>rgb 208 189 215</t>
+  </si>
+  <si>
+    <t>rgb 151 204 165</t>
+  </si>
+  <si>
+    <t>rgb 177 145 189</t>
+  </si>
+  <si>
+    <t>rgb 110 183 129</t>
+  </si>
+  <si>
+    <t>rgb 146 100 163</t>
+  </si>
+  <si>
+    <t>rgb 69 163 93</t>
+  </si>
+  <si>
+    <t>rgb 27 142 57</t>
+  </si>
+  <si>
+    <t>rgb 115 56 137</t>
+  </si>
+  <si>
+    <t>rgb 84 11 110</t>
+  </si>
+  <si>
+    <t>rgb 254 206 185</t>
+  </si>
+  <si>
+    <t>rgb 254 174 139</t>
+  </si>
+  <si>
+    <t>rgb 254 142 93</t>
+  </si>
+  <si>
+    <t>rgb 254 110 47</t>
+  </si>
+  <si>
+    <t>rgb 254 78 0</t>
+  </si>
+  <si>
+    <t>rgb 186 226 255</t>
+  </si>
+  <si>
+    <t>rgb 141 207 248</t>
+  </si>
+  <si>
+    <t>rgb 95 188 240</t>
+  </si>
+  <si>
+    <t>rgb 50 169 233</t>
+  </si>
+  <si>
+    <t>rgb 4 150 225</t>
+  </si>
+  <si>
+    <t>rgb 251 220 217</t>
+  </si>
+  <si>
+    <t>rgb 248 173 192</t>
+  </si>
+  <si>
+    <t>rgb 244 125 167</t>
+  </si>
+  <si>
+    <t>rgb 241 78 142</t>
+  </si>
+  <si>
+    <t>rgb 237 30 117</t>
+  </si>
+  <si>
+    <t>rgb 250 232 205</t>
+  </si>
+  <si>
+    <t>rgb 247 218 172</t>
+  </si>
+  <si>
+    <t>rgb 244 203 139</t>
+  </si>
+  <si>
+    <t>rgb 241 189 106</t>
+  </si>
+  <si>
+    <t>rgb 237 174 73</t>
+  </si>
+  <si>
+    <t>Year1</t>
+  </si>
+  <si>
+    <t>Year2</t>
+  </si>
+  <si>
+    <t>Year3</t>
+  </si>
+  <si>
+    <t>Year4</t>
+  </si>
+  <si>
     <t>Year5</t>
   </si>
   <si>
-    <t>Year4</t>
-  </si>
-  <si>
-    <t>Year3</t>
-  </si>
-  <si>
-    <t>Year2</t>
-  </si>
-  <si>
-    <t>Year1</t>
-  </si>
-  <si>
     <t>MaxFordham</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>EL</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>G</t>
   </si>
 </sst>
 </file>
@@ -587,7 +1093,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,8 +1207,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -775,8 +1289,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="39">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1276,12 +1802,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1500,6 +2094,108 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1508,9 +2204,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -1527,48 +2220,343 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.749992370372631"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1595,6 +2583,1215 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B513-406E-9F9B-656C84D3F665}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B513-406E-9F9B-656C84D3F665}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B513-406E-9F9B-656C84D3F665}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-B513-406E-9F9B-656C84D3F665}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-B513-406E-9F9B-656C84D3F665}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-B513-406E-9F9B-656C84D3F665}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-B513-406E-9F9B-656C84D3F665}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-B513-406E-9F9B-656C84D3F665}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-B513-406E-9F9B-656C84D3F665}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-B513-406E-9F9B-656C84D3F665}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-B513-406E-9F9B-656C84D3F665}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-B513-406E-9F9B-656C84D3F665}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-B513-406E-9F9B-656C84D3F665}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-B513-406E-9F9B-656C84D3F665}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-B513-406E-9F9B-656C84D3F665}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$E$5:$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Emails</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Practice Internal Meetings</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Design Team Meetings</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>One-to -one meetings</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CPD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Graduate Lectures</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Specifications</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Contacting Manufacturers</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mechanical Design</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Electrical Design</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Public Health Design</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Utilities</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Auto CAD</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Bluebeam</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Calculations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$5:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7901-40D3-8F35-6FE5FA0520D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>217487</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>115887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>522287</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>49212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4027CF8B-B74C-4231-BD47-EED052B0D31D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{874454D2-E7A1-49C7-B3D6-F4649E047457}" name="Table1" displayName="Table1" ref="E4:J46" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18">
+  <autoFilter ref="E4:J46" xr:uid="{FEDCF0A9-C11D-4890-955E-26CD106F3055}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{940E411E-8400-40B8-96F9-44DFEFD8B182}" name="Project Name" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{BDE580CA-F9F8-4D94-9E58-6003AEF4AA73}" name="Sector"/>
+    <tableColumn id="3" xr3:uid="{546043E9-4585-40C9-947B-FB0ACAAF1C1C}" name="RIBA Stage" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{76BAC2BF-66A2-4DE3-9C84-B30533F75941}" name="Responsibilites"/>
+    <tableColumn id="5" xr3:uid="{FAC3E5BE-A627-47EF-842A-936B8C5C24E4}" name="Technical Level"/>
+    <tableColumn id="6" xr3:uid="{3C424575-28AB-4F48-860E-C6F0286F864B}" name="Technical Background" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB18F5F7-94C3-412F-B41C-89A49D3A1B6E}" name="Table2" displayName="Table2" ref="E4:H14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="E4:H14" xr:uid="{AA3D3DA4-2083-490B-A96B-2B6A8C8A062C}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D8A65525-04C8-4BE8-8B00-98640AF74A25}" name="Date" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B8AB7846-FFD4-480C-9E95-269BFDB4D83F}" name="Type" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{ACD4220A-1F09-4CA6-83C8-1ADE750BFEDF}" name="Organisation" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{14F76FFF-750E-4CE0-B5B1-C105AAD8B551}" name="Title" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{99DCEDA8-FD6A-4E18-9BB2-84664FBDA263}" name="Table3" displayName="Table3" ref="E4:H23" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="E4:H23" xr:uid="{E199B8BB-BC91-441E-9101-4AE76CC62D13}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{590C04C5-5CDC-4ECD-B6EA-7E8890540C41}" name="Date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{3498CE5B-8610-4066-A61D-90644C3BD461}" name="Type" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2AD8B7EA-1272-40CF-AABF-BACD4051D629}" name="Title" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{3D9453BF-042C-4CB9-B176-9466A2A70913}" name="Notes" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1894,12 +4091,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E2B2AF-8A7F-4449-9F4C-2013BC6396E7}">
-  <dimension ref="A1:BZ82"/>
+  <dimension ref="A1:BZ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomLeft" activeCell="AZ7" sqref="AZ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1907,9 +4104,11 @@
     <col min="1" max="1" width="7.21875" style="3" customWidth="1"/>
     <col min="2" max="2" width="5.109375" style="13" customWidth="1"/>
     <col min="3" max="3" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="32" width="4.44140625" customWidth="1"/>
-    <col min="33" max="43" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="39" width="4.44140625" customWidth="1"/>
+    <col min="40" max="40" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="4.44140625" customWidth="1"/>
     <col min="44" max="44" width="3.88671875" customWidth="1"/>
+    <col min="45" max="50" width="4.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1918,145 +4117,145 @@
       <c r="B2" s="11"/>
       <c r="C2" s="10"/>
       <c r="D2" s="16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="T2" s="18" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="V2" s="18" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Y2" s="18" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Z2" s="18" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AA2" s="18" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AB2" s="19" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AC2" s="19" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AD2" s="19" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AE2" s="19" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AF2" s="19" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AG2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI2" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AJ2" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="AI2" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ2" s="20" t="s">
-        <v>132</v>
-      </c>
       <c r="AK2" s="20" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AL2" s="20" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AM2" s="20" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AN2" s="21" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AO2" s="21" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AP2" s="21" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AQ2" s="21" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AR2" s="21" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AS2" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT2" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU2" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV2" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="AT2" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU2" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="AV2" s="30" t="s">
-        <v>158</v>
-      </c>
       <c r="AW2" s="31" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AX2" s="29" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AY2" s="10"/>
       <c r="AZ2" s="26"/>
@@ -2091,67 +4290,67 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="174" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="171" t="s">
-        <v>173</v>
-      </c>
-      <c r="M3" s="171"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="172" t="s">
-        <v>172</v>
-      </c>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="172"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="173" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC3" s="173"/>
-      <c r="AD3" s="173"/>
-      <c r="AE3" s="173"/>
-      <c r="AF3" s="173"/>
-      <c r="AG3" s="161" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="161"/>
-      <c r="AJ3" s="161"/>
-      <c r="AK3" s="161"/>
-      <c r="AL3" s="161"/>
-      <c r="AM3" s="161"/>
-      <c r="AN3" s="162" t="s">
-        <v>175</v>
-      </c>
-      <c r="AO3" s="163"/>
-      <c r="AP3" s="163"/>
-      <c r="AQ3" s="163"/>
-      <c r="AR3" s="163"/>
-      <c r="AS3" s="163"/>
-      <c r="AT3" s="164"/>
-      <c r="AU3" s="156" t="s">
-        <v>161</v>
-      </c>
-      <c r="AV3" s="157"/>
-      <c r="AW3" s="157"/>
-      <c r="AX3" s="158"/>
+      <c r="D3" s="199" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="195" t="s">
+        <v>344</v>
+      </c>
+      <c r="M3" s="195"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="195"/>
+      <c r="Q3" s="195"/>
+      <c r="R3" s="195"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="196" t="s">
+        <v>345</v>
+      </c>
+      <c r="U3" s="196"/>
+      <c r="V3" s="196"/>
+      <c r="W3" s="196"/>
+      <c r="X3" s="196"/>
+      <c r="Y3" s="196"/>
+      <c r="Z3" s="196"/>
+      <c r="AA3" s="196"/>
+      <c r="AB3" s="197" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC3" s="197"/>
+      <c r="AD3" s="197"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="206" t="s">
+        <v>347</v>
+      </c>
+      <c r="AH3" s="206"/>
+      <c r="AI3" s="206"/>
+      <c r="AJ3" s="206"/>
+      <c r="AK3" s="206"/>
+      <c r="AL3" s="206"/>
+      <c r="AM3" s="206"/>
+      <c r="AN3" s="207" t="s">
+        <v>348</v>
+      </c>
+      <c r="AO3" s="208"/>
+      <c r="AP3" s="208"/>
+      <c r="AQ3" s="208"/>
+      <c r="AR3" s="208"/>
+      <c r="AS3" s="208"/>
+      <c r="AT3" s="209"/>
+      <c r="AU3" s="202" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV3" s="203"/>
+      <c r="AW3" s="203"/>
+      <c r="AX3" s="204"/>
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
@@ -2182,10 +4381,10 @@
       <c r="BZ3" s="4"/>
     </row>
     <row r="4" spans="1:78" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="168" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" s="166" t="s">
+      <c r="A4" s="191" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="198" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -2304,8 +4503,8 @@
       <c r="BH4" s="38"/>
     </row>
     <row r="5" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A5" s="169"/>
-      <c r="B5" s="166"/>
+      <c r="A5" s="192"/>
+      <c r="B5" s="198"/>
       <c r="C5" s="12" t="s">
         <v>1</v>
       </c>
@@ -2404,8 +4603,8 @@
       <c r="BH5" s="38"/>
     </row>
     <row r="6" spans="1:78" ht="116.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="169"/>
-      <c r="B6" s="166"/>
+      <c r="A6" s="192"/>
+      <c r="B6" s="198"/>
       <c r="C6" s="39" t="s">
         <v>2</v>
       </c>
@@ -2454,24 +4653,16 @@
         <v>2</v>
       </c>
       <c r="AP6" s="42"/>
-      <c r="AQ6" s="42"/>
+      <c r="AQ6" s="42">
+        <v>2</v>
+      </c>
       <c r="AR6" s="42"/>
       <c r="AS6" s="42"/>
-      <c r="AT6" s="84">
-        <v>2</v>
-      </c>
-      <c r="AU6" s="128">
-        <v>4</v>
-      </c>
-      <c r="AV6" s="42">
-        <v>6</v>
-      </c>
-      <c r="AW6" s="42">
-        <v>8</v>
-      </c>
-      <c r="AX6" s="84">
-        <v>10</v>
-      </c>
+      <c r="AT6" s="84"/>
+      <c r="AU6" s="128"/>
+      <c r="AV6" s="42"/>
+      <c r="AW6" s="42"/>
+      <c r="AX6" s="84"/>
       <c r="AY6" s="44"/>
       <c r="AZ6" s="44"/>
       <c r="BA6" s="44"/>
@@ -2484,8 +4675,8 @@
       <c r="BH6" s="44"/>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A7" s="169"/>
-      <c r="B7" s="166" t="s">
+      <c r="A7" s="192"/>
+      <c r="B7" s="198" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="35" t="s">
@@ -2598,8 +4789,8 @@
       <c r="BH7" s="47"/>
     </row>
     <row r="8" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A8" s="169"/>
-      <c r="B8" s="166"/>
+      <c r="A8" s="192"/>
+      <c r="B8" s="198"/>
       <c r="C8" s="12" t="s">
         <v>4</v>
       </c>
@@ -2688,8 +4879,8 @@
       <c r="BH8" s="38"/>
     </row>
     <row r="9" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A9" s="169"/>
-      <c r="B9" s="166"/>
+      <c r="A9" s="192"/>
+      <c r="B9" s="198"/>
       <c r="C9" s="12" t="s">
         <v>5</v>
       </c>
@@ -2760,8 +4951,8 @@
       <c r="BH9" s="44"/>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A10" s="169"/>
-      <c r="B10" s="166" t="s">
+      <c r="A10" s="192"/>
+      <c r="B10" s="198" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -2850,8 +5041,8 @@
       <c r="BH10" s="47"/>
     </row>
     <row r="11" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A11" s="169"/>
-      <c r="B11" s="166"/>
+      <c r="A11" s="192"/>
+      <c r="B11" s="198"/>
       <c r="C11" s="12" t="s">
         <v>7</v>
       </c>
@@ -2926,7 +5117,7 @@
       <c r="BH11" s="44"/>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A12" s="169"/>
+      <c r="A12" s="192"/>
       <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
@@ -3026,7 +5217,7 @@
       <c r="BH12" s="53"/>
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A13" s="169"/>
+      <c r="A13" s="192"/>
       <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
@@ -3100,7 +5291,7 @@
       <c r="BH13" s="53"/>
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A14" s="170"/>
+      <c r="A14" s="193"/>
       <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
@@ -3204,14 +5395,14 @@
       <c r="BH14" s="53"/>
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A15" s="165" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15" s="159" t="s">
-        <v>30</v>
+      <c r="A15" s="201" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="194" t="s">
+        <v>31</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="58"/>
       <c r="E15" s="51"/>
@@ -3286,10 +5477,10 @@
       <c r="BH15" s="47"/>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A16" s="165"/>
-      <c r="B16" s="159"/>
+      <c r="A16" s="201"/>
+      <c r="B16" s="194"/>
       <c r="C16" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="136">
         <v>2</v>
@@ -3382,10 +5573,10 @@
       <c r="BH16" s="38"/>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A17" s="165"/>
-      <c r="B17" s="159"/>
+      <c r="A17" s="201"/>
+      <c r="B17" s="194"/>
       <c r="C17" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="61"/>
       <c r="E17" s="48"/>
@@ -3456,12 +5647,12 @@
       <c r="BH17" s="44"/>
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A18" s="165"/>
-      <c r="B18" s="167" t="s">
+      <c r="A18" s="201"/>
+      <c r="B18" s="200" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="55"/>
@@ -3538,10 +5729,10 @@
       <c r="BH18" s="47"/>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A19" s="165"/>
-      <c r="B19" s="167"/>
+      <c r="A19" s="201"/>
+      <c r="B19" s="200"/>
       <c r="C19" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="61"/>
       <c r="E19" s="48"/>
@@ -3612,12 +5803,12 @@
       <c r="BH19" s="44"/>
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A20" s="165"/>
-      <c r="B20" s="166" t="s">
-        <v>31</v>
+      <c r="A20" s="201"/>
+      <c r="B20" s="198" t="s">
+        <v>32</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" s="64"/>
       <c r="E20" s="56"/>
@@ -3700,10 +5891,10 @@
       <c r="BH20" s="47"/>
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A21" s="165"/>
-      <c r="B21" s="166"/>
+      <c r="A21" s="201"/>
+      <c r="B21" s="198"/>
       <c r="C21" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21" s="144"/>
       <c r="E21" s="54"/>
@@ -3778,10 +5969,10 @@
       <c r="BH21" s="38"/>
     </row>
     <row r="22" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A22" s="165"/>
-      <c r="B22" s="166"/>
+      <c r="A22" s="201"/>
+      <c r="B22" s="198"/>
       <c r="C22" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="61"/>
       <c r="E22" s="48"/>
@@ -3850,12 +6041,12 @@
       <c r="BH22" s="44"/>
     </row>
     <row r="23" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A23" s="165"/>
-      <c r="B23" s="166" t="s">
-        <v>32</v>
+      <c r="A23" s="201"/>
+      <c r="B23" s="198" t="s">
+        <v>33</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" s="62"/>
       <c r="E23" s="55"/>
@@ -3936,10 +6127,10 @@
       <c r="BH23" s="47"/>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A24" s="165"/>
-      <c r="B24" s="166"/>
+      <c r="A24" s="201"/>
+      <c r="B24" s="198"/>
       <c r="C24" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="63"/>
       <c r="E24" s="7"/>
@@ -4012,10 +6203,10 @@
       <c r="BH24" s="38"/>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A25" s="165"/>
-      <c r="B25" s="166"/>
+      <c r="A25" s="201"/>
+      <c r="B25" s="198"/>
       <c r="C25" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="61"/>
       <c r="E25" s="48"/>
@@ -4082,12 +6273,12 @@
       <c r="BH25" s="44"/>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A26" s="165"/>
+      <c r="A26" s="201"/>
       <c r="B26" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" s="64"/>
       <c r="E26" s="56"/>
@@ -4168,12 +6359,12 @@
       <c r="BH26" s="53"/>
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A27" s="165"/>
+      <c r="A27" s="201"/>
       <c r="B27" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" s="64"/>
       <c r="E27" s="56"/>
@@ -4250,14 +6441,14 @@
       <c r="BH27" s="53"/>
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A28" s="165" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" s="166" t="s">
-        <v>36</v>
+      <c r="A28" s="201" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="198" t="s">
+        <v>38</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D28" s="62"/>
       <c r="E28" s="55">
@@ -4350,10 +6541,10 @@
       <c r="BH28" s="47"/>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A29" s="165"/>
-      <c r="B29" s="166"/>
+      <c r="A29" s="201"/>
+      <c r="B29" s="198"/>
       <c r="C29" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D29" s="61"/>
       <c r="E29" s="48"/>
@@ -4420,12 +6611,12 @@
       <c r="BH29" s="44"/>
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A30" s="165"/>
-      <c r="B30" s="166" t="s">
-        <v>38</v>
+      <c r="A30" s="201"/>
+      <c r="B30" s="198" t="s">
+        <v>40</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D30" s="62"/>
       <c r="E30" s="55"/>
@@ -4514,10 +6705,10 @@
       <c r="BH30" s="47"/>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A31" s="165"/>
-      <c r="B31" s="166"/>
+      <c r="A31" s="201"/>
+      <c r="B31" s="198"/>
       <c r="C31" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D31" s="61"/>
       <c r="E31" s="48"/>
@@ -4592,12 +6783,12 @@
       <c r="BH31" s="44"/>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A32" s="165"/>
-      <c r="B32" s="166" t="s">
-        <v>39</v>
+      <c r="A32" s="201"/>
+      <c r="B32" s="198" t="s">
+        <v>41</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D32" s="62"/>
       <c r="E32" s="55"/>
@@ -4672,10 +6863,10 @@
       <c r="BH32" s="47"/>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A33" s="165"/>
-      <c r="B33" s="166"/>
+      <c r="A33" s="201"/>
+      <c r="B33" s="198"/>
       <c r="C33" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D33" s="63"/>
       <c r="E33" s="7"/>
@@ -4738,10 +6929,10 @@
       <c r="BH33" s="38"/>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A34" s="165"/>
-      <c r="B34" s="166"/>
+      <c r="A34" s="201"/>
+      <c r="B34" s="198"/>
       <c r="C34" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D34" s="61"/>
       <c r="E34" s="48"/>
@@ -4802,12 +6993,12 @@
       <c r="BH34" s="44"/>
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A35" s="165"/>
-      <c r="B35" s="166" t="s">
-        <v>43</v>
+      <c r="A35" s="201"/>
+      <c r="B35" s="198" t="s">
+        <v>45</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D35" s="62"/>
       <c r="E35" s="55"/>
@@ -4894,10 +7085,10 @@
       <c r="BH35" s="47"/>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A36" s="165"/>
-      <c r="B36" s="166"/>
+      <c r="A36" s="201"/>
+      <c r="B36" s="198"/>
       <c r="C36" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D36" s="61"/>
       <c r="E36" s="48"/>
@@ -4964,12 +7155,12 @@
       <c r="BH36" s="44"/>
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A37" s="165"/>
-      <c r="B37" s="166" t="s">
-        <v>45</v>
+      <c r="A37" s="201"/>
+      <c r="B37" s="198" t="s">
+        <v>47</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D37" s="62"/>
       <c r="E37" s="55"/>
@@ -5038,10 +7229,10 @@
       <c r="BH37" s="47"/>
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A38" s="165"/>
-      <c r="B38" s="166"/>
+      <c r="A38" s="201"/>
+      <c r="B38" s="198"/>
       <c r="C38" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D38" s="61"/>
       <c r="E38" s="48"/>
@@ -5104,12 +7295,12 @@
       <c r="BH38" s="44"/>
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A39" s="165"/>
+      <c r="A39" s="201"/>
       <c r="B39" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D39" s="64"/>
       <c r="E39" s="56"/>
@@ -5161,9 +7352,7 @@
       <c r="AK39" s="56"/>
       <c r="AL39" s="56"/>
       <c r="AM39" s="82"/>
-      <c r="AN39" s="64">
-        <v>4</v>
-      </c>
+      <c r="AN39" s="64"/>
       <c r="AO39" s="56">
         <v>4</v>
       </c>
@@ -5190,12 +7379,12 @@
       <c r="BH39" s="53"/>
     </row>
     <row r="40" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A40" s="165"/>
+      <c r="A40" s="201"/>
       <c r="B40" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="D40" s="64"/>
       <c r="E40" s="56"/>
@@ -5268,12 +7457,12 @@
       <c r="BH40" s="53"/>
     </row>
     <row r="41" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A41" s="165"/>
+      <c r="A41" s="201"/>
       <c r="B41" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="D41" s="64"/>
       <c r="E41" s="56"/>
@@ -5346,14 +7535,14 @@
       <c r="BH41" s="53"/>
     </row>
     <row r="42" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A42" s="165" t="s">
-        <v>179</v>
-      </c>
-      <c r="B42" s="166" t="s">
-        <v>51</v>
+      <c r="A42" s="201" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="198" t="s">
+        <v>54</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D42" s="62"/>
       <c r="E42" s="55"/>
@@ -5434,10 +7623,10 @@
       <c r="BH42" s="47"/>
     </row>
     <row r="43" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A43" s="165"/>
-      <c r="B43" s="166"/>
+      <c r="A43" s="201"/>
+      <c r="B43" s="198"/>
       <c r="C43" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D43" s="61"/>
       <c r="E43" s="48"/>
@@ -5518,12 +7707,12 @@
       <c r="BH43" s="44"/>
     </row>
     <row r="44" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A44" s="165"/>
+      <c r="A44" s="201"/>
       <c r="B44" s="15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D44" s="64"/>
       <c r="E44" s="56"/>
@@ -5581,7 +7770,9 @@
       <c r="AQ44" s="56"/>
       <c r="AR44" s="56"/>
       <c r="AS44" s="56"/>
-      <c r="AT44" s="82"/>
+      <c r="AT44" s="82">
+        <v>8</v>
+      </c>
       <c r="AU44" s="64"/>
       <c r="AV44" s="56"/>
       <c r="AW44" s="56"/>
@@ -5598,12 +7789,12 @@
       <c r="BH44" s="53"/>
     </row>
     <row r="45" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A45" s="165"/>
-      <c r="B45" s="159" t="s">
-        <v>64</v>
+      <c r="A45" s="201"/>
+      <c r="B45" s="194" t="s">
+        <v>67</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D45" s="62"/>
       <c r="E45" s="55"/>
@@ -5663,7 +7854,9 @@
       <c r="AS45" s="55">
         <v>8</v>
       </c>
-      <c r="AT45" s="80"/>
+      <c r="AT45" s="80">
+        <v>8</v>
+      </c>
       <c r="AU45" s="62"/>
       <c r="AV45" s="55"/>
       <c r="AW45" s="55"/>
@@ -5680,10 +7873,10 @@
       <c r="BH45" s="47"/>
     </row>
     <row r="46" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A46" s="165"/>
-      <c r="B46" s="159"/>
+      <c r="A46" s="201"/>
+      <c r="B46" s="194"/>
       <c r="C46" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D46" s="63"/>
       <c r="E46" s="7"/>
@@ -5750,10 +7943,10 @@
       <c r="BH46" s="38"/>
     </row>
     <row r="47" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A47" s="165"/>
-      <c r="B47" s="159"/>
+      <c r="A47" s="201"/>
+      <c r="B47" s="194"/>
       <c r="C47" s="12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D47" s="61"/>
       <c r="E47" s="48"/>
@@ -5814,12 +8007,12 @@
       <c r="BH47" s="44"/>
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A48" s="165"/>
-      <c r="B48" s="159" t="s">
-        <v>65</v>
+      <c r="A48" s="201"/>
+      <c r="B48" s="194" t="s">
+        <v>68</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D48" s="62"/>
       <c r="E48" s="55"/>
@@ -5897,7 +8090,9 @@
       <c r="AS48" s="55">
         <v>10</v>
       </c>
-      <c r="AT48" s="80"/>
+      <c r="AT48" s="80">
+        <v>10</v>
+      </c>
       <c r="AU48" s="62"/>
       <c r="AV48" s="55"/>
       <c r="AW48" s="55"/>
@@ -5914,10 +8109,10 @@
       <c r="BH48" s="47"/>
     </row>
     <row r="49" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A49" s="165"/>
-      <c r="B49" s="159"/>
+      <c r="A49" s="201"/>
+      <c r="B49" s="194"/>
       <c r="C49" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D49" s="61"/>
       <c r="E49" s="48"/>
@@ -5973,7 +8168,9 @@
       <c r="AQ49" s="48"/>
       <c r="AR49" s="48"/>
       <c r="AS49" s="48"/>
-      <c r="AT49" s="79"/>
+      <c r="AT49" s="79">
+        <v>4</v>
+      </c>
       <c r="AU49" s="61"/>
       <c r="AV49" s="48"/>
       <c r="AW49" s="48"/>
@@ -5990,12 +8187,12 @@
       <c r="BH49" s="44"/>
     </row>
     <row r="50" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A50" s="165"/>
-      <c r="B50" s="159" t="s">
-        <v>59</v>
+      <c r="A50" s="201"/>
+      <c r="B50" s="194" t="s">
+        <v>62</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D50" s="62"/>
       <c r="E50" s="55"/>
@@ -6076,10 +8273,10 @@
       <c r="BH50" s="47"/>
     </row>
     <row r="51" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A51" s="165"/>
-      <c r="B51" s="159"/>
+      <c r="A51" s="201"/>
+      <c r="B51" s="194"/>
       <c r="C51" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D51" s="61"/>
       <c r="E51" s="48"/>
@@ -6152,12 +8349,12 @@
       <c r="BH51" s="44"/>
     </row>
     <row r="52" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A52" s="165"/>
-      <c r="B52" s="159" t="s">
-        <v>66</v>
+      <c r="A52" s="201"/>
+      <c r="B52" s="194" t="s">
+        <v>69</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D52" s="62"/>
       <c r="E52" s="55"/>
@@ -6223,7 +8420,9 @@
         <v>10</v>
       </c>
       <c r="AS52" s="55"/>
-      <c r="AT52" s="80"/>
+      <c r="AT52" s="80">
+        <v>10</v>
+      </c>
       <c r="AU52" s="62"/>
       <c r="AV52" s="55"/>
       <c r="AW52" s="55"/>
@@ -6240,10 +8439,10 @@
       <c r="BH52" s="47"/>
     </row>
     <row r="53" spans="1:60" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="165"/>
-      <c r="B53" s="159"/>
+      <c r="A53" s="201"/>
+      <c r="B53" s="194"/>
       <c r="C53" s="12" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D53" s="63"/>
       <c r="E53" s="7"/>
@@ -6295,7 +8494,9 @@
         <v>2</v>
       </c>
       <c r="AS53" s="7"/>
-      <c r="AT53" s="81"/>
+      <c r="AT53" s="81">
+        <v>2</v>
+      </c>
       <c r="AU53" s="63"/>
       <c r="AV53" s="7"/>
       <c r="AW53" s="7"/>
@@ -6312,10 +8513,10 @@
       <c r="BH53" s="38"/>
     </row>
     <row r="54" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A54" s="165"/>
-      <c r="B54" s="159"/>
+      <c r="A54" s="201"/>
+      <c r="B54" s="194"/>
       <c r="C54" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D54" s="61"/>
       <c r="E54" s="48"/>
@@ -6376,12 +8577,12 @@
       <c r="BH54" s="44"/>
     </row>
     <row r="55" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A55" s="165"/>
+      <c r="A55" s="201"/>
       <c r="B55" s="14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D55" s="64"/>
       <c r="E55" s="56"/>
@@ -6431,7 +8632,9 @@
       <c r="AQ55" s="56"/>
       <c r="AR55" s="56"/>
       <c r="AS55" s="56"/>
-      <c r="AT55" s="82"/>
+      <c r="AT55" s="82">
+        <v>6</v>
+      </c>
       <c r="AU55" s="64"/>
       <c r="AV55" s="56"/>
       <c r="AW55" s="56"/>
@@ -6448,14 +8651,14 @@
       <c r="BH55" s="53"/>
     </row>
     <row r="56" spans="1:60" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="165" t="s">
-        <v>180</v>
-      </c>
-      <c r="B56" s="159" t="s">
-        <v>87</v>
+      <c r="A56" s="201" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="194" t="s">
+        <v>90</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D56" s="62"/>
       <c r="E56" s="55"/>
@@ -6558,10 +8761,10 @@
       <c r="BH56" s="47"/>
     </row>
     <row r="57" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A57" s="165"/>
-      <c r="B57" s="159"/>
+      <c r="A57" s="201"/>
+      <c r="B57" s="194"/>
       <c r="C57" s="12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D57" s="61"/>
       <c r="E57" s="48"/>
@@ -6654,12 +8857,12 @@
       <c r="BH57" s="44"/>
     </row>
     <row r="58" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A58" s="165"/>
-      <c r="B58" s="159" t="s">
-        <v>88</v>
+      <c r="A58" s="201"/>
+      <c r="B58" s="194" t="s">
+        <v>91</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D58" s="62"/>
       <c r="E58" s="55">
@@ -6756,10 +8959,10 @@
       <c r="BH58" s="47"/>
     </row>
     <row r="59" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A59" s="165"/>
-      <c r="B59" s="159"/>
+      <c r="A59" s="201"/>
+      <c r="B59" s="194"/>
       <c r="C59" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D59" s="63"/>
       <c r="E59" s="7"/>
@@ -6840,10 +9043,10 @@
       <c r="BH59" s="38"/>
     </row>
     <row r="60" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A60" s="165"/>
-      <c r="B60" s="159"/>
+      <c r="A60" s="201"/>
+      <c r="B60" s="194"/>
       <c r="C60" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D60" s="61"/>
       <c r="E60" s="48"/>
@@ -6904,12 +9107,12 @@
       <c r="BH60" s="44"/>
     </row>
     <row r="61" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A61" s="165"/>
-      <c r="B61" s="159" t="s">
-        <v>89</v>
+      <c r="A61" s="201"/>
+      <c r="B61" s="194" t="s">
+        <v>92</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D61" s="62"/>
       <c r="E61" s="55"/>
@@ -6986,10 +9189,10 @@
       <c r="BH61" s="47"/>
     </row>
     <row r="62" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A62" s="165"/>
-      <c r="B62" s="159"/>
+      <c r="A62" s="201"/>
+      <c r="B62" s="194"/>
       <c r="C62" s="12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D62" s="61"/>
       <c r="E62" s="48"/>
@@ -7062,12 +9265,12 @@
       <c r="BH62" s="44"/>
     </row>
     <row r="63" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A63" s="165"/>
-      <c r="B63" s="159" t="s">
-        <v>90</v>
+      <c r="A63" s="201"/>
+      <c r="B63" s="194" t="s">
+        <v>93</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D63" s="62"/>
       <c r="E63" s="55">
@@ -7162,10 +9365,10 @@
       <c r="BH63" s="47"/>
     </row>
     <row r="64" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A64" s="165"/>
-      <c r="B64" s="159"/>
+      <c r="A64" s="201"/>
+      <c r="B64" s="194"/>
       <c r="C64" s="12" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D64" s="63"/>
       <c r="E64" s="7"/>
@@ -7244,10 +9447,10 @@
       <c r="BH64" s="38"/>
     </row>
     <row r="65" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A65" s="165"/>
-      <c r="B65" s="159"/>
+      <c r="A65" s="201"/>
+      <c r="B65" s="194"/>
       <c r="C65" s="135" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D65" s="61"/>
       <c r="E65" s="48"/>
@@ -7276,20 +9479,38 @@
       <c r="AB65" s="61"/>
       <c r="AC65" s="48"/>
       <c r="AD65" s="48"/>
-      <c r="AE65" s="48"/>
-      <c r="AF65" s="79"/>
-      <c r="AG65" s="61"/>
-      <c r="AH65" s="48"/>
+      <c r="AE65" s="48">
+        <v>6</v>
+      </c>
+      <c r="AF65" s="79">
+        <v>6</v>
+      </c>
+      <c r="AG65" s="61">
+        <v>6</v>
+      </c>
+      <c r="AH65" s="48">
+        <v>6</v>
+      </c>
       <c r="AI65" s="48"/>
       <c r="AJ65" s="48"/>
       <c r="AK65" s="48"/>
       <c r="AL65" s="48"/>
       <c r="AM65" s="79"/>
-      <c r="AN65" s="61"/>
-      <c r="AO65" s="48"/>
-      <c r="AP65" s="48"/>
-      <c r="AQ65" s="48"/>
-      <c r="AR65" s="48"/>
+      <c r="AN65" s="61">
+        <v>8</v>
+      </c>
+      <c r="AO65" s="48">
+        <v>8</v>
+      </c>
+      <c r="AP65" s="48">
+        <v>8</v>
+      </c>
+      <c r="AQ65" s="48">
+        <v>8</v>
+      </c>
+      <c r="AR65" s="48">
+        <v>8</v>
+      </c>
       <c r="AS65" s="48"/>
       <c r="AT65" s="79"/>
       <c r="AU65" s="61"/>
@@ -7308,12 +9529,12 @@
       <c r="BH65" s="44"/>
     </row>
     <row r="66" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A66" s="165"/>
+      <c r="A66" s="201"/>
       <c r="B66" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D66" s="64"/>
       <c r="E66" s="56"/>
@@ -7367,7 +9588,9 @@
         <v>2</v>
       </c>
       <c r="AS66" s="56"/>
-      <c r="AT66" s="82"/>
+      <c r="AT66" s="82">
+        <v>2</v>
+      </c>
       <c r="AU66" s="64"/>
       <c r="AV66" s="56"/>
       <c r="AW66" s="56"/>
@@ -7384,12 +9607,12 @@
       <c r="BH66" s="53"/>
     </row>
     <row r="67" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A67" s="165"/>
-      <c r="B67" s="159" t="s">
-        <v>91</v>
+      <c r="A67" s="201"/>
+      <c r="B67" s="194" t="s">
+        <v>94</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D67" s="62"/>
       <c r="E67" s="55"/>
@@ -7476,10 +9699,10 @@
       <c r="BH67" s="47"/>
     </row>
     <row r="68" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A68" s="165"/>
-      <c r="B68" s="159"/>
+      <c r="A68" s="201"/>
+      <c r="B68" s="194"/>
       <c r="C68" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D68" s="61"/>
       <c r="E68" s="48"/>
@@ -7552,12 +9775,12 @@
       <c r="BH68" s="44"/>
     </row>
     <row r="69" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A69" s="165"/>
+      <c r="A69" s="201"/>
       <c r="B69" s="14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D69" s="64"/>
       <c r="E69" s="56"/>
@@ -7630,12 +9853,12 @@
       <c r="BH69" s="53"/>
     </row>
     <row r="70" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A70" s="165"/>
+      <c r="A70" s="201"/>
       <c r="B70" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D70" s="64"/>
       <c r="E70" s="56"/>
@@ -7716,12 +9939,12 @@
       <c r="BH70" s="53"/>
     </row>
     <row r="71" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A71" s="165"/>
+      <c r="A71" s="201"/>
       <c r="B71" s="14" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D71" s="64"/>
       <c r="E71" s="56"/>
@@ -7779,7 +10002,9 @@
       <c r="AS71" s="56">
         <v>6</v>
       </c>
-      <c r="AT71" s="82"/>
+      <c r="AT71" s="82">
+        <v>2</v>
+      </c>
       <c r="AU71" s="64"/>
       <c r="AV71" s="56"/>
       <c r="AW71" s="56"/>
@@ -7796,12 +10021,12 @@
       <c r="BH71" s="53"/>
     </row>
     <row r="72" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A72" s="165"/>
+      <c r="A72" s="201"/>
       <c r="B72" s="14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D72" s="64"/>
       <c r="E72" s="56"/>
@@ -7872,12 +10097,12 @@
       <c r="BH72" s="53"/>
     </row>
     <row r="73" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A73" s="165"/>
-      <c r="B73" s="159" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>85</v>
+      <c r="A73" s="201"/>
+      <c r="B73" s="194" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="D73" s="62"/>
       <c r="E73" s="55"/>
@@ -7935,7 +10160,9 @@
         <v>10</v>
       </c>
       <c r="AS73" s="55"/>
-      <c r="AT73" s="80"/>
+      <c r="AT73" s="80">
+        <v>10</v>
+      </c>
       <c r="AU73" s="62"/>
       <c r="AV73" s="55"/>
       <c r="AW73" s="55"/>
@@ -7952,10 +10179,10 @@
       <c r="BH73" s="47"/>
     </row>
     <row r="74" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A74" s="165"/>
-      <c r="B74" s="159"/>
+      <c r="A74" s="201"/>
+      <c r="B74" s="194"/>
       <c r="C74" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D74" s="63"/>
       <c r="E74" s="7"/>
@@ -8011,7 +10238,9 @@
         <v>10</v>
       </c>
       <c r="AS74" s="7"/>
-      <c r="AT74" s="81"/>
+      <c r="AT74" s="81">
+        <v>10</v>
+      </c>
       <c r="AU74" s="63"/>
       <c r="AV74" s="7"/>
       <c r="AW74" s="7"/>
@@ -8028,10 +10257,10 @@
       <c r="BH74" s="38"/>
     </row>
     <row r="75" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A75" s="165"/>
-      <c r="B75" s="159"/>
+      <c r="A75" s="201"/>
+      <c r="B75" s="194"/>
       <c r="C75" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D75" s="61"/>
       <c r="E75" s="48"/>
@@ -8085,7 +10314,9 @@
         <v>4</v>
       </c>
       <c r="AS75" s="48"/>
-      <c r="AT75" s="79"/>
+      <c r="AT75" s="79">
+        <v>4</v>
+      </c>
       <c r="AU75" s="61"/>
       <c r="AV75" s="48"/>
       <c r="AW75" s="48"/>
@@ -8102,14 +10333,14 @@
       <c r="BH75" s="44"/>
     </row>
     <row r="76" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A76" s="160" t="s">
-        <v>181</v>
+      <c r="A76" s="205" t="s">
+        <v>106</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D76" s="64"/>
       <c r="E76" s="56"/>
@@ -8212,12 +10443,12 @@
       <c r="BH76" s="53"/>
     </row>
     <row r="77" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A77" s="160"/>
+      <c r="A77" s="205"/>
       <c r="B77" s="14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D77" s="64"/>
       <c r="E77" s="56"/>
@@ -8279,13 +10510,17 @@
       <c r="AK77" s="56"/>
       <c r="AL77" s="56"/>
       <c r="AM77" s="82"/>
-      <c r="AN77" s="64"/>
+      <c r="AN77" s="64">
+        <v>4</v>
+      </c>
       <c r="AO77" s="56"/>
       <c r="AP77" s="56"/>
       <c r="AQ77" s="56"/>
       <c r="AR77" s="56"/>
       <c r="AS77" s="56"/>
-      <c r="AT77" s="82"/>
+      <c r="AT77" s="82">
+        <v>8</v>
+      </c>
       <c r="AU77" s="64"/>
       <c r="AV77" s="56"/>
       <c r="AW77" s="56"/>
@@ -8302,12 +10537,12 @@
       <c r="BH77" s="53"/>
     </row>
     <row r="78" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A78" s="160"/>
-      <c r="B78" s="159" t="s">
-        <v>101</v>
+      <c r="A78" s="205"/>
+      <c r="B78" s="194" t="s">
+        <v>105</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D78" s="62">
         <v>6</v>
@@ -8420,10 +10655,10 @@
       <c r="BH78" s="47"/>
     </row>
     <row r="79" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A79" s="160"/>
-      <c r="B79" s="159"/>
+      <c r="A79" s="205"/>
+      <c r="B79" s="194"/>
       <c r="C79" s="12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D79" s="63"/>
       <c r="E79" s="7"/>
@@ -8524,10 +10759,10 @@
       <c r="BH79" s="38"/>
     </row>
     <row r="80" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A80" s="160"/>
-      <c r="B80" s="159"/>
+      <c r="A80" s="205"/>
+      <c r="B80" s="194"/>
       <c r="C80" s="12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D80" s="61"/>
       <c r="E80" s="48"/>
@@ -8598,12 +10833,12 @@
       <c r="BH80" s="44"/>
     </row>
     <row r="81" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A81" s="160"/>
-      <c r="B81" s="159" t="s">
-        <v>100</v>
+      <c r="A81" s="205"/>
+      <c r="B81" s="194" t="s">
+        <v>104</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D81" s="62"/>
       <c r="E81" s="55"/>
@@ -8696,10 +10931,10 @@
       <c r="BH81" s="47"/>
     </row>
     <row r="82" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A82" s="160"/>
-      <c r="B82" s="159"/>
+      <c r="A82" s="205"/>
+      <c r="B82" s="194"/>
       <c r="C82" s="12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D82" s="61"/>
       <c r="E82" s="48"/>
@@ -8777,30 +11012,11 @@
       <c r="BG82" s="44"/>
       <c r="BH82" s="44"/>
     </row>
+    <row r="86" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="C86" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="L3:S3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A15:A27"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A42:A55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A28:A41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B30:B31"/>
     <mergeCell ref="AU3:AX3"/>
     <mergeCell ref="B78:B80"/>
     <mergeCell ref="B81:B82"/>
@@ -8817,6 +11033,28 @@
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A28:A41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A15:A27"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="L3:S3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D3:K3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D4:AX14">
@@ -8891,70 +11129,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DE3D7E-D29A-4C27-B380-AC3A86F585B2}">
-  <dimension ref="B2:K18"/>
+  <dimension ref="B2:K27"/>
   <sheetViews>
-    <sheetView zoomScale="53" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="E11" zoomScale="117" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11.77734375" customWidth="1"/>
     <col min="6" max="6" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F13" s="150" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G13" s="149">
         <v>2</v>
@@ -8974,7 +11213,7 @@
     </row>
     <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F14" s="151" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G14" s="148">
         <v>2</v>
@@ -8994,7 +11233,7 @@
     </row>
     <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F15" s="152" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G15" s="148">
         <v>2</v>
@@ -9014,7 +11253,7 @@
     </row>
     <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F16" s="153" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G16" s="148">
         <v>2</v>
@@ -9034,7 +11273,7 @@
     </row>
     <row r="17" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F17" s="154" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G17" s="148">
         <v>2</v>
@@ -9054,7 +11293,7 @@
     </row>
     <row r="18" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F18" s="155" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G18" s="148">
         <v>2</v>
@@ -9072,8 +11311,117 @@
         <v>10</v>
       </c>
     </row>
+    <row r="21" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="150"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="149"/>
+    </row>
+    <row r="23" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="151"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="148"/>
+    </row>
+    <row r="24" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="152"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="148"/>
+    </row>
+    <row r="25" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="153"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+    </row>
+    <row r="26" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="154"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+    </row>
+    <row r="27" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="155"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G13:K13">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFC0E0C9"/>
+        <color rgb="FF1B8E39"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:K14">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFD0BDD7"/>
+        <color rgb="FF540B6E"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:K15">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFFECEB9"/>
+        <color rgb="FFFE4E00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:K16">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFBAE2FF"/>
+        <color rgb="FF0496E1"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:K17">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFFBDCD9"/>
+        <color rgb="FFED1E75"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:K18">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFFAE8CD"/>
+        <color rgb="FFEDAE49"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:K22">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -9083,7 +11431,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:K14">
+  <conditionalFormatting sqref="G23:K23">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -9093,7 +11441,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:K15">
+  <conditionalFormatting sqref="G24:K24">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -9103,7 +11451,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:K16">
+  <conditionalFormatting sqref="G25:K25">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -9113,7 +11461,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:K17">
+  <conditionalFormatting sqref="G26:K26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="2"/>
@@ -9123,13 +11471,1422 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:K18">
+  <conditionalFormatting sqref="G27:K27">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="2"/>
         <cfvo type="num" val="10"/>
         <color rgb="FFFAE8CD"/>
         <color rgb="FFEDAE49"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A554C4-4DCA-495C-914A-451E78BF337E}">
+  <dimension ref="E5:F19"/>
+  <sheetViews>
+    <sheetView zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="156">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="156">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="156">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="156">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="156">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="156">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="156">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="156">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="156">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="156">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="156">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="156">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="156">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="156">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="156">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9925F1-96A1-4686-8DC9-6C8F88C75782}">
+  <dimension ref="E4:J46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="81.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E4" s="178" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="179" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="179" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="179" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="179" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" s="180" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E5" s="157"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="158"/>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E6" s="159" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="160" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="160" t="s">
+        <v>247</v>
+      </c>
+      <c r="H6" s="161" t="s">
+        <v>229</v>
+      </c>
+      <c r="I6" s="160" t="s">
+        <v>204</v>
+      </c>
+      <c r="J6" s="162" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E7" s="163"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="165" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" s="166" t="s">
+        <v>204</v>
+      </c>
+      <c r="J7" s="167" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E8" s="163"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="165" t="s">
+        <v>207</v>
+      </c>
+      <c r="I8" s="166" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="167" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E9" s="163"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="182" t="s">
+        <v>208</v>
+      </c>
+      <c r="I9" s="183" t="s">
+        <v>204</v>
+      </c>
+      <c r="J9" s="181" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E10" s="163"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="165" t="s">
+        <v>209</v>
+      </c>
+      <c r="I10" s="166" t="s">
+        <v>204</v>
+      </c>
+      <c r="J10" s="167" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E11" s="163"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="165" t="s">
+        <v>210</v>
+      </c>
+      <c r="I11" s="166" t="s">
+        <v>204</v>
+      </c>
+      <c r="J11" s="167" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E12" s="163"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="165" t="s">
+        <v>211</v>
+      </c>
+      <c r="I12" s="166" t="s">
+        <v>204</v>
+      </c>
+      <c r="J12" s="167" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E13" s="163"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="165" t="s">
+        <v>212</v>
+      </c>
+      <c r="I13" s="166" t="s">
+        <v>205</v>
+      </c>
+      <c r="J13" s="167" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E14" s="163"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="165" t="s">
+        <v>213</v>
+      </c>
+      <c r="I14" s="166" t="s">
+        <v>204</v>
+      </c>
+      <c r="J14" s="167" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E15" s="163"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="165" t="s">
+        <v>214</v>
+      </c>
+      <c r="I15" s="166" t="s">
+        <v>206</v>
+      </c>
+      <c r="J15" s="167" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E16" s="168"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="172"/>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E17" s="159" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="160" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="160" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" s="161" t="s">
+        <v>215</v>
+      </c>
+      <c r="I17" s="160" t="s">
+        <v>204</v>
+      </c>
+      <c r="J17" s="162" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E18" s="173"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="165" t="s">
+        <v>216</v>
+      </c>
+      <c r="I18" s="166" t="s">
+        <v>204</v>
+      </c>
+      <c r="J18" s="167" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E19" s="173"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="165" t="s">
+        <v>217</v>
+      </c>
+      <c r="I19" s="166" t="s">
+        <v>204</v>
+      </c>
+      <c r="J19" s="167" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E20" s="173"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="165" t="s">
+        <v>219</v>
+      </c>
+      <c r="I20" s="166" t="s">
+        <v>204</v>
+      </c>
+      <c r="J20" s="167" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E21" s="173"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="165" t="s">
+        <v>218</v>
+      </c>
+      <c r="I21" s="166" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21" s="167" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E22" s="173"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="165" t="s">
+        <v>220</v>
+      </c>
+      <c r="I22" s="166" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" s="167" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E23" s="173"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="165" t="s">
+        <v>221</v>
+      </c>
+      <c r="I23" s="166" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23" s="167" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E24" s="173"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="165" t="s">
+        <v>222</v>
+      </c>
+      <c r="I24" s="166" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" s="167" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E25" s="173"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="165" t="s">
+        <v>240</v>
+      </c>
+      <c r="I25" s="166" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" s="167" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E26" s="173"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="165" t="s">
+        <v>227</v>
+      </c>
+      <c r="I26" s="166" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" s="167" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E27" s="173"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="165" t="s">
+        <v>223</v>
+      </c>
+      <c r="I27" s="166" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" s="167" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E28" s="173"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="165" t="s">
+        <v>224</v>
+      </c>
+      <c r="I28" s="166" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" s="167" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E29" s="173"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="165" t="s">
+        <v>225</v>
+      </c>
+      <c r="I29" s="166" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" s="167" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E30" s="173"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="165" t="s">
+        <v>226</v>
+      </c>
+      <c r="I30" s="166" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" s="167" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E31" s="174"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="172"/>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E32" s="159" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="160" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" s="160">
+        <v>4</v>
+      </c>
+      <c r="H32" s="161" t="s">
+        <v>231</v>
+      </c>
+      <c r="I32" s="160" t="s">
+        <v>204</v>
+      </c>
+      <c r="J32" s="162" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E33" s="173"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="165" t="s">
+        <v>230</v>
+      </c>
+      <c r="I33" s="166" t="s">
+        <v>206</v>
+      </c>
+      <c r="J33" s="167" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E34" s="175"/>
+      <c r="F34" s="171"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="176"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="172"/>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E35" s="159" t="s">
+        <v>251</v>
+      </c>
+      <c r="F35" s="160" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" s="160">
+        <v>4</v>
+      </c>
+      <c r="H35" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="I35" s="160" t="s">
+        <v>204</v>
+      </c>
+      <c r="J35" s="162" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E36" s="173"/>
+      <c r="F36" s="166"/>
+      <c r="G36" s="166"/>
+      <c r="H36" s="165" t="s">
+        <v>233</v>
+      </c>
+      <c r="I36" s="166" t="s">
+        <v>204</v>
+      </c>
+      <c r="J36" s="167" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E37" s="174"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="172"/>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E38" s="159" t="s">
+        <v>253</v>
+      </c>
+      <c r="F38" s="160" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" s="160">
+        <v>4</v>
+      </c>
+      <c r="H38" s="161" t="s">
+        <v>234</v>
+      </c>
+      <c r="I38" s="160" t="s">
+        <v>206</v>
+      </c>
+      <c r="J38" s="162" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E39" s="173"/>
+      <c r="F39" s="166"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="165" t="s">
+        <v>235</v>
+      </c>
+      <c r="I39" s="166" t="s">
+        <v>205</v>
+      </c>
+      <c r="J39" s="167" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E40" s="174"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="172"/>
+    </row>
+    <row r="41" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E41" s="159" t="s">
+        <v>195</v>
+      </c>
+      <c r="F41" s="160" t="s">
+        <v>201</v>
+      </c>
+      <c r="G41" s="160" t="s">
+        <v>252</v>
+      </c>
+      <c r="H41" s="161" t="s">
+        <v>236</v>
+      </c>
+      <c r="I41" s="160" t="s">
+        <v>205</v>
+      </c>
+      <c r="J41" s="162" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E42" s="174"/>
+      <c r="F42" s="171"/>
+      <c r="G42" s="171"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="171"/>
+      <c r="J42" s="172"/>
+    </row>
+    <row r="43" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E43" s="159" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" s="160" t="s">
+        <v>250</v>
+      </c>
+      <c r="G43" s="177" t="s">
+        <v>248</v>
+      </c>
+      <c r="H43" s="161" t="s">
+        <v>237</v>
+      </c>
+      <c r="I43" s="160" t="s">
+        <v>206</v>
+      </c>
+      <c r="J43" s="162" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E44" s="174"/>
+      <c r="F44" s="171"/>
+      <c r="G44" s="171"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="171"/>
+      <c r="J44" s="172"/>
+    </row>
+    <row r="45" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E45" s="159" t="s">
+        <v>196</v>
+      </c>
+      <c r="F45" s="160" t="s">
+        <v>239</v>
+      </c>
+      <c r="G45" s="160" t="s">
+        <v>239</v>
+      </c>
+      <c r="H45" s="161" t="s">
+        <v>238</v>
+      </c>
+      <c r="I45" s="160" t="s">
+        <v>206</v>
+      </c>
+      <c r="J45" s="162" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E46" s="174"/>
+      <c r="F46" s="171"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="171"/>
+      <c r="J46" s="172"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C99BF8-0DD2-4A0D-BC69-2BDFA364035F}">
+  <dimension ref="E4:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="47.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E4" s="184" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="184" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" s="184" t="s">
+        <v>258</v>
+      </c>
+      <c r="H4" s="184" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E5" s="185">
+        <v>43644</v>
+      </c>
+      <c r="F5" s="186" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="186" t="s">
+        <v>261</v>
+      </c>
+      <c r="H5" s="186" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E6" s="185">
+        <v>43665</v>
+      </c>
+      <c r="F6" s="186" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" s="186" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="186" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="185">
+        <v>43684</v>
+      </c>
+      <c r="F7" s="186" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="186" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="186" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="185">
+        <v>43690</v>
+      </c>
+      <c r="F8" s="186" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="186" t="s">
+        <v>263</v>
+      </c>
+      <c r="H8" s="186" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E9" s="185">
+        <v>43698</v>
+      </c>
+      <c r="F9" s="186" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="186" t="s">
+        <v>285</v>
+      </c>
+      <c r="H9" s="186" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E10" s="185">
+        <v>43703</v>
+      </c>
+      <c r="F10" s="186" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="186" t="s">
+        <v>287</v>
+      </c>
+      <c r="H10" s="186" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="185">
+        <v>43718</v>
+      </c>
+      <c r="F11" s="186" t="s">
+        <v>289</v>
+      </c>
+      <c r="G11" s="186" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="186" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="185">
+        <v>43739</v>
+      </c>
+      <c r="F12" s="186" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12" s="186" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="186" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="185">
+        <v>43761</v>
+      </c>
+      <c r="F13" s="186" t="s">
+        <v>297</v>
+      </c>
+      <c r="G13" s="186" t="s">
+        <v>298</v>
+      </c>
+      <c r="H13" s="186" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E14" s="185">
+        <v>43784</v>
+      </c>
+      <c r="F14" s="186" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="186" t="s">
+        <v>301</v>
+      </c>
+      <c r="H14" s="186" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05692569-8008-4C8B-8D79-6A673499492D}">
+  <dimension ref="E4:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E4" s="184" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="184" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" s="184" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="184" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E5" s="187">
+        <v>43640</v>
+      </c>
+      <c r="F5" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="G5" s="165" t="s">
+        <v>273</v>
+      </c>
+      <c r="H5" s="165" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E6" s="187">
+        <v>43640</v>
+      </c>
+      <c r="F6" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" s="165" t="s">
+        <v>274</v>
+      </c>
+      <c r="H6" s="165" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="187">
+        <v>43640</v>
+      </c>
+      <c r="F7" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" s="165" t="s">
+        <v>270</v>
+      </c>
+      <c r="H7" s="165" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="187">
+        <v>43642</v>
+      </c>
+      <c r="F8" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" s="165" t="s">
+        <v>271</v>
+      </c>
+      <c r="H8" s="165" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E9" s="187">
+        <v>43642</v>
+      </c>
+      <c r="F9" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="165" t="s">
+        <v>272</v>
+      </c>
+      <c r="H9" s="165" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E10" s="187">
+        <v>43649</v>
+      </c>
+      <c r="F10" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" s="165" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="165" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="187">
+        <v>43655</v>
+      </c>
+      <c r="F11" s="165" t="s">
+        <v>276</v>
+      </c>
+      <c r="G11" s="165" t="s">
+        <v>277</v>
+      </c>
+      <c r="H11" s="165" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="187">
+        <v>43656</v>
+      </c>
+      <c r="F12" s="165" t="s">
+        <v>269</v>
+      </c>
+      <c r="G12" s="165" t="s">
+        <v>293</v>
+      </c>
+      <c r="H12" s="165" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="187">
+        <v>43656</v>
+      </c>
+      <c r="F13" s="165" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="165" t="s">
+        <v>279</v>
+      </c>
+      <c r="H13" s="165" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E14" s="187">
+        <v>43657</v>
+      </c>
+      <c r="F14" s="165" t="s">
+        <v>278</v>
+      </c>
+      <c r="G14" s="165" t="s">
+        <v>281</v>
+      </c>
+      <c r="H14" s="165" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E15" s="187">
+        <v>43663</v>
+      </c>
+      <c r="F15" s="165" t="s">
+        <v>291</v>
+      </c>
+      <c r="G15" s="165" t="s">
+        <v>282</v>
+      </c>
+      <c r="H15" s="165" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E16" s="187">
+        <v>43707</v>
+      </c>
+      <c r="F16" s="165" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="165" t="s">
+        <v>279</v>
+      </c>
+      <c r="H16" s="165" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E17" s="187">
+        <v>43697</v>
+      </c>
+      <c r="F17" s="165" t="s">
+        <v>291</v>
+      </c>
+      <c r="G17" s="165" t="s">
+        <v>292</v>
+      </c>
+      <c r="H17" s="165" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E18" s="187">
+        <v>43730</v>
+      </c>
+      <c r="F18" s="165" t="s">
+        <v>291</v>
+      </c>
+      <c r="G18" s="165" t="s">
+        <v>311</v>
+      </c>
+      <c r="H18" s="165" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E19" s="187">
+        <v>43735</v>
+      </c>
+      <c r="F19" s="165" t="s">
+        <v>291</v>
+      </c>
+      <c r="G19" s="165" t="s">
+        <v>294</v>
+      </c>
+      <c r="H19" s="165" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E20" s="187">
+        <v>43756</v>
+      </c>
+      <c r="F20" s="165" t="s">
+        <v>291</v>
+      </c>
+      <c r="G20" s="165" t="s">
+        <v>296</v>
+      </c>
+      <c r="H20" s="165" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E21" s="187">
+        <v>43768</v>
+      </c>
+      <c r="F21" s="165" t="s">
+        <v>278</v>
+      </c>
+      <c r="G21" s="165" t="s">
+        <v>300</v>
+      </c>
+      <c r="H21" s="165" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E22" s="187">
+        <v>43782</v>
+      </c>
+      <c r="F22" s="165" t="s">
+        <v>278</v>
+      </c>
+      <c r="G22" s="165" t="s">
+        <v>281</v>
+      </c>
+      <c r="H22" s="165" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E23" s="165" t="s">
+        <v>312</v>
+      </c>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165" t="s">
+        <v>279</v>
+      </c>
+      <c r="H23" s="165" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39510C1-F955-4B4A-83E7-E32CA7E01BE1}">
+  <dimension ref="F7:K13"/>
+  <sheetViews>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="150" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="188" t="s">
+        <v>313</v>
+      </c>
+      <c r="H8" s="189" t="s">
+        <v>315</v>
+      </c>
+      <c r="I8" s="189" t="s">
+        <v>317</v>
+      </c>
+      <c r="J8" s="189" t="s">
+        <v>319</v>
+      </c>
+      <c r="K8" s="188" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="151" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="190" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="190" t="s">
+        <v>316</v>
+      </c>
+      <c r="I9" s="190" t="s">
+        <v>318</v>
+      </c>
+      <c r="J9" s="190" t="s">
+        <v>321</v>
+      </c>
+      <c r="K9" s="190" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="152" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="190" t="s">
+        <v>323</v>
+      </c>
+      <c r="H10" s="190" t="s">
+        <v>324</v>
+      </c>
+      <c r="I10" s="190" t="s">
+        <v>325</v>
+      </c>
+      <c r="J10" s="190" t="s">
+        <v>326</v>
+      </c>
+      <c r="K10" s="190" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="153" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="190" t="s">
+        <v>328</v>
+      </c>
+      <c r="H11" s="190" t="s">
+        <v>329</v>
+      </c>
+      <c r="I11" s="190" t="s">
+        <v>330</v>
+      </c>
+      <c r="J11" s="190" t="s">
+        <v>331</v>
+      </c>
+      <c r="K11" s="190" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="154" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="190" t="s">
+        <v>333</v>
+      </c>
+      <c r="H12" s="190" t="s">
+        <v>334</v>
+      </c>
+      <c r="I12" s="190" t="s">
+        <v>335</v>
+      </c>
+      <c r="J12" s="190" t="s">
+        <v>336</v>
+      </c>
+      <c r="K12" s="190" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="155" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="190" t="s">
+        <v>338</v>
+      </c>
+      <c r="H13" s="190" t="s">
+        <v>339</v>
+      </c>
+      <c r="I13" s="190" t="s">
+        <v>340</v>
+      </c>
+      <c r="J13" s="190" t="s">
+        <v>341</v>
+      </c>
+      <c r="K13" s="190" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G8:K8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFC0E0C9"/>
+        <color rgb="FF1B8E39"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:K13">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFD0BDD7"/>
+        <color rgb="FF540B6E"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -9147,6 +12904,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F33E8372F1A21F419469F20A538D343E" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="42a4145dfa7d4b5abf8c75a07cc1911b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3bf0cd4c-2448-4ff2-8213-a41beab8c9a9" xmlns:ns4="56e04384-c5e3-48db-802d-5469919b516a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7a12eb2997e9a96616949852e8db7e8" ns3:_="" ns4:_="">
     <xsd:import namespace="3bf0cd4c-2448-4ff2-8213-a41beab8c9a9"/>
@@ -9317,12 +13080,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6EE32A0-71F8-4E54-BFDA-6902525DD513}">
   <ds:schemaRefs>
@@ -9332,6 +13089,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA3192F1-D77C-4218-9B8F-6C8BC205D392}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3bf0cd4c-2448-4ff2-8213-a41beab8c9a9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="56e04384-c5e3-48db-802d-5469919b516a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B5C290-ACB6-42AB-BF14-001193526EA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9348,21 +13122,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA3192F1-D77C-4218-9B8F-6C8BC205D392}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="56e04384-c5e3-48db-802d-5469919b516a"/>
-    <ds:schemaRef ds:uri="3bf0cd4c-2448-4ff2-8213-a41beab8c9a9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/skill_analysis_scratch.xlsx
+++ b/skill_analysis_scratch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\JupyterProj\RowenaIndusProj\rowenaIndustrialReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681E5926-DEB7-407F-8F46-F1CB3ABD3C5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61049EB4-51AB-4A76-9C39-06708038F87E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91381AA0-CDED-4A24-B704-028EFDFCCA12}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="350">
   <si>
     <t>SM1i</t>
   </si>
@@ -1084,6 +1084,9 @@
   </si>
   <si>
     <t>MaxFordham</t>
+  </si>
+  <si>
+    <t>proj_group</t>
   </si>
 </sst>
 </file>
@@ -2163,39 +2166,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2204,6 +2174,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -2220,19 +2193,42 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2557,6 +2553,13 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3737,7 +3740,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{874454D2-E7A1-49C7-B3D6-F4649E047457}" name="Table1" displayName="Table1" ref="E4:J46" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{874454D2-E7A1-49C7-B3D6-F4649E047457}" name="Table1" displayName="Table1" ref="E4:J46" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17">
   <autoFilter ref="E4:J46" xr:uid="{FEDCF0A9-C11D-4890-955E-26CD106F3055}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3747,19 +3750,19 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{940E411E-8400-40B8-96F9-44DFEFD8B182}" name="Project Name" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{940E411E-8400-40B8-96F9-44DFEFD8B182}" name="Project Name" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{BDE580CA-F9F8-4D94-9E58-6003AEF4AA73}" name="Sector"/>
-    <tableColumn id="3" xr3:uid="{546043E9-4585-40C9-947B-FB0ACAAF1C1C}" name="RIBA Stage" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{546043E9-4585-40C9-947B-FB0ACAAF1C1C}" name="RIBA Stage" dataDxfId="15"/>
     <tableColumn id="4" xr3:uid="{76BAC2BF-66A2-4DE3-9C84-B30533F75941}" name="Responsibilites"/>
     <tableColumn id="5" xr3:uid="{FAC3E5BE-A627-47EF-842A-936B8C5C24E4}" name="Technical Level"/>
-    <tableColumn id="6" xr3:uid="{3C424575-28AB-4F48-860E-C6F0286F864B}" name="Technical Background" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{3C424575-28AB-4F48-860E-C6F0286F864B}" name="Technical Background" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB18F5F7-94C3-412F-B41C-89A49D3A1B6E}" name="Table2" displayName="Table2" ref="E4:H14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB18F5F7-94C3-412F-B41C-89A49D3A1B6E}" name="Table2" displayName="Table2" ref="E4:H14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="E4:H14" xr:uid="{AA3D3DA4-2083-490B-A96B-2B6A8C8A062C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3767,17 +3770,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D8A65525-04C8-4BE8-8B00-98640AF74A25}" name="Date" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{B8AB7846-FFD4-480C-9E95-269BFDB4D83F}" name="Type" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{ACD4220A-1F09-4CA6-83C8-1ADE750BFEDF}" name="Organisation" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{14F76FFF-750E-4CE0-B5B1-C105AAD8B551}" name="Title" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{D8A65525-04C8-4BE8-8B00-98640AF74A25}" name="Date" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{B8AB7846-FFD4-480C-9E95-269BFDB4D83F}" name="Type" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{ACD4220A-1F09-4CA6-83C8-1ADE750BFEDF}" name="Organisation" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{14F76FFF-750E-4CE0-B5B1-C105AAD8B551}" name="Title" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{99DCEDA8-FD6A-4E18-9BB2-84664FBDA263}" name="Table3" displayName="Table3" ref="E4:H23" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{99DCEDA8-FD6A-4E18-9BB2-84664FBDA263}" name="Table3" displayName="Table3" ref="E4:H23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="E4:H23" xr:uid="{E199B8BB-BC91-441E-9101-4AE76CC62D13}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3785,10 +3788,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{590C04C5-5CDC-4ECD-B6EA-7E8890540C41}" name="Date" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{3498CE5B-8610-4066-A61D-90644C3BD461}" name="Type" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{2AD8B7EA-1272-40CF-AABF-BACD4051D629}" name="Title" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{3D9453BF-042C-4CB9-B176-9466A2A70913}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{590C04C5-5CDC-4ECD-B6EA-7E8890540C41}" name="Date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{3498CE5B-8610-4066-A61D-90644C3BD461}" name="Type" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{2AD8B7EA-1272-40CF-AABF-BACD4051D629}" name="Title" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3D9453BF-042C-4CB9-B176-9466A2A70913}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4096,7 +4099,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
-      <selection pane="bottomLeft" activeCell="AZ7" sqref="AZ7"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4289,68 +4292,70 @@
     <row r="3" spans="1:78" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="199" t="s">
+      <c r="C3" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3" s="209" t="s">
         <v>343</v>
       </c>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="195" t="s">
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="206" t="s">
         <v>344</v>
       </c>
-      <c r="M3" s="195"/>
-      <c r="N3" s="195"/>
-      <c r="O3" s="195"/>
-      <c r="P3" s="195"/>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="195"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="196" t="s">
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="207" t="s">
         <v>345</v>
       </c>
-      <c r="U3" s="196"/>
-      <c r="V3" s="196"/>
-      <c r="W3" s="196"/>
-      <c r="X3" s="196"/>
-      <c r="Y3" s="196"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="196"/>
-      <c r="AB3" s="197" t="s">
+      <c r="U3" s="207"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
+      <c r="X3" s="207"/>
+      <c r="Y3" s="207"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="208" t="s">
         <v>346</v>
       </c>
-      <c r="AC3" s="197"/>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="206" t="s">
+      <c r="AC3" s="208"/>
+      <c r="AD3" s="208"/>
+      <c r="AE3" s="208"/>
+      <c r="AF3" s="208"/>
+      <c r="AG3" s="196" t="s">
         <v>347</v>
       </c>
-      <c r="AH3" s="206"/>
-      <c r="AI3" s="206"/>
-      <c r="AJ3" s="206"/>
-      <c r="AK3" s="206"/>
-      <c r="AL3" s="206"/>
-      <c r="AM3" s="206"/>
-      <c r="AN3" s="207" t="s">
+      <c r="AH3" s="196"/>
+      <c r="AI3" s="196"/>
+      <c r="AJ3" s="196"/>
+      <c r="AK3" s="196"/>
+      <c r="AL3" s="196"/>
+      <c r="AM3" s="196"/>
+      <c r="AN3" s="197" t="s">
         <v>348</v>
       </c>
-      <c r="AO3" s="208"/>
-      <c r="AP3" s="208"/>
-      <c r="AQ3" s="208"/>
-      <c r="AR3" s="208"/>
-      <c r="AS3" s="208"/>
-      <c r="AT3" s="209"/>
-      <c r="AU3" s="202" t="s">
+      <c r="AO3" s="198"/>
+      <c r="AP3" s="198"/>
+      <c r="AQ3" s="198"/>
+      <c r="AR3" s="198"/>
+      <c r="AS3" s="198"/>
+      <c r="AT3" s="199"/>
+      <c r="AU3" s="191" t="s">
         <v>166</v>
       </c>
-      <c r="AV3" s="203"/>
-      <c r="AW3" s="203"/>
-      <c r="AX3" s="204"/>
+      <c r="AV3" s="192"/>
+      <c r="AW3" s="192"/>
+      <c r="AX3" s="193"/>
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
@@ -4381,10 +4386,10 @@
       <c r="BZ3" s="4"/>
     </row>
     <row r="4" spans="1:78" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="191" t="s">
+      <c r="A4" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="201" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -4503,8 +4508,8 @@
       <c r="BH4" s="38"/>
     </row>
     <row r="5" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A5" s="192"/>
-      <c r="B5" s="198"/>
+      <c r="A5" s="204"/>
+      <c r="B5" s="201"/>
       <c r="C5" s="12" t="s">
         <v>1</v>
       </c>
@@ -4603,8 +4608,8 @@
       <c r="BH5" s="38"/>
     </row>
     <row r="6" spans="1:78" ht="116.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="192"/>
-      <c r="B6" s="198"/>
+      <c r="A6" s="204"/>
+      <c r="B6" s="201"/>
       <c r="C6" s="39" t="s">
         <v>2</v>
       </c>
@@ -4675,8 +4680,8 @@
       <c r="BH6" s="44"/>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A7" s="192"/>
-      <c r="B7" s="198" t="s">
+      <c r="A7" s="204"/>
+      <c r="B7" s="201" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="35" t="s">
@@ -4789,8 +4794,8 @@
       <c r="BH7" s="47"/>
     </row>
     <row r="8" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A8" s="192"/>
-      <c r="B8" s="198"/>
+      <c r="A8" s="204"/>
+      <c r="B8" s="201"/>
       <c r="C8" s="12" t="s">
         <v>4</v>
       </c>
@@ -4879,8 +4884,8 @@
       <c r="BH8" s="38"/>
     </row>
     <row r="9" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A9" s="192"/>
-      <c r="B9" s="198"/>
+      <c r="A9" s="204"/>
+      <c r="B9" s="201"/>
       <c r="C9" s="12" t="s">
         <v>5</v>
       </c>
@@ -4951,8 +4956,8 @@
       <c r="BH9" s="44"/>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A10" s="192"/>
-      <c r="B10" s="198" t="s">
+      <c r="A10" s="204"/>
+      <c r="B10" s="201" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -5041,8 +5046,8 @@
       <c r="BH10" s="47"/>
     </row>
     <row r="11" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A11" s="192"/>
-      <c r="B11" s="198"/>
+      <c r="A11" s="204"/>
+      <c r="B11" s="201"/>
       <c r="C11" s="12" t="s">
         <v>7</v>
       </c>
@@ -5117,7 +5122,7 @@
       <c r="BH11" s="44"/>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A12" s="192"/>
+      <c r="A12" s="204"/>
       <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
@@ -5217,7 +5222,7 @@
       <c r="BH12" s="53"/>
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A13" s="192"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
@@ -5291,7 +5296,7 @@
       <c r="BH13" s="53"/>
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A14" s="193"/>
+      <c r="A14" s="205"/>
       <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
@@ -5395,7 +5400,7 @@
       <c r="BH14" s="53"/>
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A15" s="201" t="s">
+      <c r="A15" s="200" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="194" t="s">
@@ -5477,7 +5482,7 @@
       <c r="BH15" s="47"/>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.3">
-      <c r="A16" s="201"/>
+      <c r="A16" s="200"/>
       <c r="B16" s="194"/>
       <c r="C16" s="12" t="s">
         <v>19</v>
@@ -5573,7 +5578,7 @@
       <c r="BH16" s="38"/>
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A17" s="201"/>
+      <c r="A17" s="200"/>
       <c r="B17" s="194"/>
       <c r="C17" s="12" t="s">
         <v>20</v>
@@ -5647,8 +5652,8 @@
       <c r="BH17" s="44"/>
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A18" s="201"/>
-      <c r="B18" s="200" t="s">
+      <c r="A18" s="200"/>
+      <c r="B18" s="202" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -5729,8 +5734,8 @@
       <c r="BH18" s="47"/>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A19" s="201"/>
-      <c r="B19" s="200"/>
+      <c r="A19" s="200"/>
+      <c r="B19" s="202"/>
       <c r="C19" s="12" t="s">
         <v>22</v>
       </c>
@@ -5803,8 +5808,8 @@
       <c r="BH19" s="44"/>
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A20" s="201"/>
-      <c r="B20" s="198" t="s">
+      <c r="A20" s="200"/>
+      <c r="B20" s="201" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -5891,8 +5896,8 @@
       <c r="BH20" s="47"/>
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A21" s="201"/>
-      <c r="B21" s="198"/>
+      <c r="A21" s="200"/>
+      <c r="B21" s="201"/>
       <c r="C21" s="12" t="s">
         <v>24</v>
       </c>
@@ -5969,8 +5974,8 @@
       <c r="BH21" s="38"/>
     </row>
     <row r="22" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A22" s="201"/>
-      <c r="B22" s="198"/>
+      <c r="A22" s="200"/>
+      <c r="B22" s="201"/>
       <c r="C22" s="12" t="s">
         <v>25</v>
       </c>
@@ -6041,8 +6046,8 @@
       <c r="BH22" s="44"/>
     </row>
     <row r="23" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A23" s="201"/>
-      <c r="B23" s="198" t="s">
+      <c r="A23" s="200"/>
+      <c r="B23" s="201" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -6127,8 +6132,8 @@
       <c r="BH23" s="47"/>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A24" s="201"/>
-      <c r="B24" s="198"/>
+      <c r="A24" s="200"/>
+      <c r="B24" s="201"/>
       <c r="C24" s="12" t="s">
         <v>27</v>
       </c>
@@ -6203,8 +6208,8 @@
       <c r="BH24" s="38"/>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A25" s="201"/>
-      <c r="B25" s="198"/>
+      <c r="A25" s="200"/>
+      <c r="B25" s="201"/>
       <c r="C25" s="12" t="s">
         <v>28</v>
       </c>
@@ -6273,7 +6278,7 @@
       <c r="BH25" s="44"/>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A26" s="201"/>
+      <c r="A26" s="200"/>
       <c r="B26" s="15" t="s">
         <v>34</v>
       </c>
@@ -6359,7 +6364,7 @@
       <c r="BH26" s="53"/>
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A27" s="201"/>
+      <c r="A27" s="200"/>
       <c r="B27" s="15" t="s">
         <v>35</v>
       </c>
@@ -6441,10 +6446,10 @@
       <c r="BH27" s="53"/>
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A28" s="201" t="s">
+      <c r="A28" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="198" t="s">
+      <c r="B28" s="201" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="12" t="s">
@@ -6541,8 +6546,8 @@
       <c r="BH28" s="47"/>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A29" s="201"/>
-      <c r="B29" s="198"/>
+      <c r="A29" s="200"/>
+      <c r="B29" s="201"/>
       <c r="C29" s="12" t="s">
         <v>38</v>
       </c>
@@ -6611,8 +6616,8 @@
       <c r="BH29" s="44"/>
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A30" s="201"/>
-      <c r="B30" s="198" t="s">
+      <c r="A30" s="200"/>
+      <c r="B30" s="201" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -6705,8 +6710,8 @@
       <c r="BH30" s="47"/>
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A31" s="201"/>
-      <c r="B31" s="198"/>
+      <c r="A31" s="200"/>
+      <c r="B31" s="201"/>
       <c r="C31" s="12" t="s">
         <v>40</v>
       </c>
@@ -6783,8 +6788,8 @@
       <c r="BH31" s="44"/>
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A32" s="201"/>
-      <c r="B32" s="198" t="s">
+      <c r="A32" s="200"/>
+      <c r="B32" s="201" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -6863,8 +6868,8 @@
       <c r="BH32" s="47"/>
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A33" s="201"/>
-      <c r="B33" s="198"/>
+      <c r="A33" s="200"/>
+      <c r="B33" s="201"/>
       <c r="C33" s="12" t="s">
         <v>42</v>
       </c>
@@ -6929,8 +6934,8 @@
       <c r="BH33" s="38"/>
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A34" s="201"/>
-      <c r="B34" s="198"/>
+      <c r="A34" s="200"/>
+      <c r="B34" s="201"/>
       <c r="C34" s="12" t="s">
         <v>43</v>
       </c>
@@ -6993,8 +6998,8 @@
       <c r="BH34" s="44"/>
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A35" s="201"/>
-      <c r="B35" s="198" t="s">
+      <c r="A35" s="200"/>
+      <c r="B35" s="201" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="12" t="s">
@@ -7085,8 +7090,8 @@
       <c r="BH35" s="47"/>
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A36" s="201"/>
-      <c r="B36" s="198"/>
+      <c r="A36" s="200"/>
+      <c r="B36" s="201"/>
       <c r="C36" s="12" t="s">
         <v>45</v>
       </c>
@@ -7155,8 +7160,8 @@
       <c r="BH36" s="44"/>
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A37" s="201"/>
-      <c r="B37" s="198" t="s">
+      <c r="A37" s="200"/>
+      <c r="B37" s="201" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -7229,8 +7234,8 @@
       <c r="BH37" s="47"/>
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A38" s="201"/>
-      <c r="B38" s="198"/>
+      <c r="A38" s="200"/>
+      <c r="B38" s="201"/>
       <c r="C38" s="12" t="s">
         <v>47</v>
       </c>
@@ -7295,7 +7300,7 @@
       <c r="BH38" s="44"/>
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A39" s="201"/>
+      <c r="A39" s="200"/>
       <c r="B39" s="15" t="s">
         <v>48</v>
       </c>
@@ -7379,7 +7384,7 @@
       <c r="BH39" s="53"/>
     </row>
     <row r="40" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A40" s="201"/>
+      <c r="A40" s="200"/>
       <c r="B40" s="15" t="s">
         <v>51</v>
       </c>
@@ -7457,7 +7462,7 @@
       <c r="BH40" s="53"/>
     </row>
     <row r="41" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A41" s="201"/>
+      <c r="A41" s="200"/>
       <c r="B41" s="15" t="s">
         <v>52</v>
       </c>
@@ -7535,10 +7540,10 @@
       <c r="BH41" s="53"/>
     </row>
     <row r="42" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A42" s="201" t="s">
+      <c r="A42" s="200" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="198" t="s">
+      <c r="B42" s="201" t="s">
         <v>54</v>
       </c>
       <c r="C42" s="12" t="s">
@@ -7623,8 +7628,8 @@
       <c r="BH42" s="47"/>
     </row>
     <row r="43" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A43" s="201"/>
-      <c r="B43" s="198"/>
+      <c r="A43" s="200"/>
+      <c r="B43" s="201"/>
       <c r="C43" s="12" t="s">
         <v>55</v>
       </c>
@@ -7707,7 +7712,7 @@
       <c r="BH43" s="44"/>
     </row>
     <row r="44" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A44" s="201"/>
+      <c r="A44" s="200"/>
       <c r="B44" s="15" t="s">
         <v>56</v>
       </c>
@@ -7789,7 +7794,7 @@
       <c r="BH44" s="53"/>
     </row>
     <row r="45" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A45" s="201"/>
+      <c r="A45" s="200"/>
       <c r="B45" s="194" t="s">
         <v>67</v>
       </c>
@@ -7873,7 +7878,7 @@
       <c r="BH45" s="47"/>
     </row>
     <row r="46" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A46" s="201"/>
+      <c r="A46" s="200"/>
       <c r="B46" s="194"/>
       <c r="C46" s="12" t="s">
         <v>58</v>
@@ -7943,7 +7948,7 @@
       <c r="BH46" s="38"/>
     </row>
     <row r="47" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A47" s="201"/>
+      <c r="A47" s="200"/>
       <c r="B47" s="194"/>
       <c r="C47" s="12" t="s">
         <v>59</v>
@@ -8007,7 +8012,7 @@
       <c r="BH47" s="44"/>
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A48" s="201"/>
+      <c r="A48" s="200"/>
       <c r="B48" s="194" t="s">
         <v>68</v>
       </c>
@@ -8109,7 +8114,7 @@
       <c r="BH48" s="47"/>
     </row>
     <row r="49" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A49" s="201"/>
+      <c r="A49" s="200"/>
       <c r="B49" s="194"/>
       <c r="C49" s="12" t="s">
         <v>61</v>
@@ -8187,7 +8192,7 @@
       <c r="BH49" s="44"/>
     </row>
     <row r="50" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A50" s="201"/>
+      <c r="A50" s="200"/>
       <c r="B50" s="194" t="s">
         <v>62</v>
       </c>
@@ -8273,7 +8278,7 @@
       <c r="BH50" s="47"/>
     </row>
     <row r="51" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A51" s="201"/>
+      <c r="A51" s="200"/>
       <c r="B51" s="194"/>
       <c r="C51" s="12" t="s">
         <v>63</v>
@@ -8349,7 +8354,7 @@
       <c r="BH51" s="44"/>
     </row>
     <row r="52" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A52" s="201"/>
+      <c r="A52" s="200"/>
       <c r="B52" s="194" t="s">
         <v>69</v>
       </c>
@@ -8439,7 +8444,7 @@
       <c r="BH52" s="47"/>
     </row>
     <row r="53" spans="1:60" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="201"/>
+      <c r="A53" s="200"/>
       <c r="B53" s="194"/>
       <c r="C53" s="12" t="s">
         <v>148</v>
@@ -8513,7 +8518,7 @@
       <c r="BH53" s="38"/>
     </row>
     <row r="54" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A54" s="201"/>
+      <c r="A54" s="200"/>
       <c r="B54" s="194"/>
       <c r="C54" s="12" t="s">
         <v>65</v>
@@ -8577,7 +8582,7 @@
       <c r="BH54" s="44"/>
     </row>
     <row r="55" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A55" s="201"/>
+      <c r="A55" s="200"/>
       <c r="B55" s="14" t="s">
         <v>70</v>
       </c>
@@ -8651,7 +8656,7 @@
       <c r="BH55" s="53"/>
     </row>
     <row r="56" spans="1:60" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="201" t="s">
+      <c r="A56" s="200" t="s">
         <v>97</v>
       </c>
       <c r="B56" s="194" t="s">
@@ -8761,7 +8766,7 @@
       <c r="BH56" s="47"/>
     </row>
     <row r="57" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A57" s="201"/>
+      <c r="A57" s="200"/>
       <c r="B57" s="194"/>
       <c r="C57" s="12" t="s">
         <v>73</v>
@@ -8857,7 +8862,7 @@
       <c r="BH57" s="44"/>
     </row>
     <row r="58" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A58" s="201"/>
+      <c r="A58" s="200"/>
       <c r="B58" s="194" t="s">
         <v>91</v>
       </c>
@@ -8959,7 +8964,7 @@
       <c r="BH58" s="47"/>
     </row>
     <row r="59" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A59" s="201"/>
+      <c r="A59" s="200"/>
       <c r="B59" s="194"/>
       <c r="C59" s="12" t="s">
         <v>75</v>
@@ -9043,7 +9048,7 @@
       <c r="BH59" s="38"/>
     </row>
     <row r="60" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A60" s="201"/>
+      <c r="A60" s="200"/>
       <c r="B60" s="194"/>
       <c r="C60" s="12" t="s">
         <v>76</v>
@@ -9107,7 +9112,7 @@
       <c r="BH60" s="44"/>
     </row>
     <row r="61" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A61" s="201"/>
+      <c r="A61" s="200"/>
       <c r="B61" s="194" t="s">
         <v>92</v>
       </c>
@@ -9189,7 +9194,7 @@
       <c r="BH61" s="47"/>
     </row>
     <row r="62" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A62" s="201"/>
+      <c r="A62" s="200"/>
       <c r="B62" s="194"/>
       <c r="C62" s="12" t="s">
         <v>149</v>
@@ -9265,7 +9270,7 @@
       <c r="BH62" s="44"/>
     </row>
     <row r="63" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A63" s="201"/>
+      <c r="A63" s="200"/>
       <c r="B63" s="194" t="s">
         <v>93</v>
       </c>
@@ -9365,7 +9370,7 @@
       <c r="BH63" s="47"/>
     </row>
     <row r="64" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A64" s="201"/>
+      <c r="A64" s="200"/>
       <c r="B64" s="194"/>
       <c r="C64" s="12" t="s">
         <v>93</v>
@@ -9447,7 +9452,7 @@
       <c r="BH64" s="38"/>
     </row>
     <row r="65" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A65" s="201"/>
+      <c r="A65" s="200"/>
       <c r="B65" s="194"/>
       <c r="C65" s="135" t="s">
         <v>79</v>
@@ -9529,7 +9534,7 @@
       <c r="BH65" s="44"/>
     </row>
     <row r="66" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A66" s="201"/>
+      <c r="A66" s="200"/>
       <c r="B66" s="14" t="s">
         <v>80</v>
       </c>
@@ -9607,7 +9612,7 @@
       <c r="BH66" s="53"/>
     </row>
     <row r="67" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A67" s="201"/>
+      <c r="A67" s="200"/>
       <c r="B67" s="194" t="s">
         <v>94</v>
       </c>
@@ -9699,7 +9704,7 @@
       <c r="BH67" s="47"/>
     </row>
     <row r="68" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A68" s="201"/>
+      <c r="A68" s="200"/>
       <c r="B68" s="194"/>
       <c r="C68" s="12" t="s">
         <v>82</v>
@@ -9775,7 +9780,7 @@
       <c r="BH68" s="44"/>
     </row>
     <row r="69" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A69" s="201"/>
+      <c r="A69" s="200"/>
       <c r="B69" s="14" t="s">
         <v>83</v>
       </c>
@@ -9853,7 +9858,7 @@
       <c r="BH69" s="53"/>
     </row>
     <row r="70" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A70" s="201"/>
+      <c r="A70" s="200"/>
       <c r="B70" s="14" t="s">
         <v>84</v>
       </c>
@@ -9939,7 +9944,7 @@
       <c r="BH70" s="53"/>
     </row>
     <row r="71" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A71" s="201"/>
+      <c r="A71" s="200"/>
       <c r="B71" s="14" t="s">
         <v>95</v>
       </c>
@@ -10021,7 +10026,7 @@
       <c r="BH71" s="53"/>
     </row>
     <row r="72" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A72" s="201"/>
+      <c r="A72" s="200"/>
       <c r="B72" s="14" t="s">
         <v>96</v>
       </c>
@@ -10097,7 +10102,7 @@
       <c r="BH72" s="53"/>
     </row>
     <row r="73" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A73" s="201"/>
+      <c r="A73" s="200"/>
       <c r="B73" s="194" t="s">
         <v>87</v>
       </c>
@@ -10179,7 +10184,7 @@
       <c r="BH73" s="47"/>
     </row>
     <row r="74" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A74" s="201"/>
+      <c r="A74" s="200"/>
       <c r="B74" s="194"/>
       <c r="C74" s="12" t="s">
         <v>87</v>
@@ -10257,7 +10262,7 @@
       <c r="BH74" s="38"/>
     </row>
     <row r="75" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A75" s="201"/>
+      <c r="A75" s="200"/>
       <c r="B75" s="194"/>
       <c r="C75" s="12" t="s">
         <v>89</v>
@@ -10333,7 +10338,7 @@
       <c r="BH75" s="44"/>
     </row>
     <row r="76" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A76" s="205" t="s">
+      <c r="A76" s="195" t="s">
         <v>106</v>
       </c>
       <c r="B76" s="14" t="s">
@@ -10443,7 +10448,7 @@
       <c r="BH76" s="53"/>
     </row>
     <row r="77" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A77" s="205"/>
+      <c r="A77" s="195"/>
       <c r="B77" s="14" t="s">
         <v>99</v>
       </c>
@@ -10537,7 +10542,7 @@
       <c r="BH77" s="53"/>
     </row>
     <row r="78" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A78" s="205"/>
+      <c r="A78" s="195"/>
       <c r="B78" s="194" t="s">
         <v>105</v>
       </c>
@@ -10655,7 +10660,7 @@
       <c r="BH78" s="47"/>
     </row>
     <row r="79" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A79" s="205"/>
+      <c r="A79" s="195"/>
       <c r="B79" s="194"/>
       <c r="C79" s="12" t="s">
         <v>102</v>
@@ -10759,7 +10764,7 @@
       <c r="BH79" s="38"/>
     </row>
     <row r="80" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A80" s="205"/>
+      <c r="A80" s="195"/>
       <c r="B80" s="194"/>
       <c r="C80" s="12" t="s">
         <v>103</v>
@@ -10833,7 +10838,7 @@
       <c r="BH80" s="44"/>
     </row>
     <row r="81" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A81" s="205"/>
+      <c r="A81" s="195"/>
       <c r="B81" s="194" t="s">
         <v>104</v>
       </c>
@@ -10931,7 +10936,7 @@
       <c r="BH81" s="47"/>
     </row>
     <row r="82" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A82" s="205"/>
+      <c r="A82" s="195"/>
       <c r="B82" s="194"/>
       <c r="C82" s="12" t="s">
         <v>104</v>
@@ -11017,6 +11022,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="L3:S3"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A15:A27"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A28:A41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="AU3:AX3"/>
     <mergeCell ref="B78:B80"/>
     <mergeCell ref="B81:B82"/>
@@ -11033,28 +11060,6 @@
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A42:A55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A28:A41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A15:A27"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="L3:S3"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D3:K3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D4:AX14">
@@ -11118,7 +11123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:AX54 D56:AX82 D55:AM55 AO55:AX55">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12895,18 +12900,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13081,14 +13086,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6EE32A0-71F8-4E54-BFDA-6902525DD513}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA3192F1-D77C-4218-9B8F-6C8BC205D392}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -13101,6 +13098,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6EE32A0-71F8-4E54-BFDA-6902525DD513}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
